--- a/biology/Médecine/Centre_hospitalier_de_Brive/Centre_hospitalier_de_Brive.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_Brive/Centre_hospitalier_de_Brive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre hospitalier de Brive est un centre hospitalier public français situé à Brive-la-Gaillarde, dans le département de la Corrèze. C'est le premier établissement de santé de la Corrèze et le deuxième pôle de santé du Limousin.
@@ -512,12 +524,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site du Centre hospitalier comprend le bâtiment principal de douze étages et plusieurs autres pavillons dévolus à des spécialités (maternité, oncologie, Hémodialyse, médecine physique et de réadaptation, psychiatrie etc.)[1].
-73 800 entrées ont été enregistrées durant l’année 2016[2]. La maternité du centre hospitalier de Brive représente la première maternité de la Corrèze avec près de 850 naissances en 2016. Le Centre hospitalier employait, en 2016, 1 815 personnels[2].
-Spécialités
-Le Centre hospitalier de Brive dispense les spécialités médicales et chirurgicales suivantes[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site du Centre hospitalier comprend le bâtiment principal de douze étages et plusieurs autres pavillons dévolus à des spécialités (maternité, oncologie, Hémodialyse, médecine physique et de réadaptation, psychiatrie etc.).
+73 800 entrées ont été enregistrées durant l’année 2016. La maternité du centre hospitalier de Brive représente la première maternité de la Corrèze avec près de 850 naissances en 2016. Le Centre hospitalier employait, en 2016, 1 815 personnels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Brive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Brive</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spécialités</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre hospitalier de Brive dispense les spécialités médicales et chirurgicales suivantes:
 Addictologie
 Anesthésie-réanimation
 Cancérologie et Radiothérapie
